--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41165.38909955874</v>
+        <v>41165.38909955875</v>
       </c>
     </row>
     <row r="7">
@@ -26522,43 +26524,43 @@
         <v>-17712.7065373136</v>
       </c>
       <c r="C6" t="n">
-        <v>-17712.70653731361</v>
+        <v>-17712.7065373136</v>
       </c>
       <c r="D6" t="n">
         <v>-17712.7065373136</v>
       </c>
       <c r="E6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="F6" t="n">
         <v>15914.8934626864</v>
       </c>
       <c r="G6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="H6" t="n">
         <v>15914.8934626864</v>
       </c>
       <c r="I6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="J6" t="n">
         <v>15914.8934626864</v>
       </c>
       <c r="K6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="L6" t="n">
         <v>15914.8934626864</v>
       </c>
       <c r="M6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="N6" t="n">
         <v>15914.8934626864</v>
       </c>
       <c r="O6" t="n">
-        <v>15914.89346268639</v>
+        <v>15914.8934626864</v>
       </c>
       <c r="P6" t="n">
         <v>15914.8934626864</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_6.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41165.38909955875</v>
+        <v>-84694.8637382962</v>
       </c>
     </row>
     <row r="7">
@@ -26316,7 +26316,7 @@
         <v>31829.78692537279</v>
       </c>
       <c r="C2" t="n">
-        <v>31829.78692537279</v>
+        <v>31829.7869253728</v>
       </c>
       <c r="D2" t="n">
         <v>31829.78692537279</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17712.7065373136</v>
+        <v>-32755.72726512488</v>
       </c>
       <c r="C6" t="n">
-        <v>-17712.7065373136</v>
+        <v>-32755.72726512488</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.7065373136</v>
+        <v>-32755.72726512489</v>
       </c>
       <c r="E6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751145</v>
       </c>
       <c r="F6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751181</v>
       </c>
       <c r="G6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751163</v>
       </c>
       <c r="H6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751181</v>
       </c>
       <c r="I6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751127</v>
       </c>
       <c r="J6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751145</v>
       </c>
       <c r="K6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751163</v>
       </c>
       <c r="L6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751108</v>
       </c>
       <c r="M6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751163</v>
       </c>
       <c r="N6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751145</v>
       </c>
       <c r="O6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751163</v>
       </c>
       <c r="P6" t="n">
-        <v>15914.8934626864</v>
+        <v>871.8727348751145</v>
       </c>
     </row>
   </sheetData>
